--- a/gams/sumSum_Q_RA_in.xlsx
+++ b/gams/sumSum_Q_RA_in.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\CloudDrive\Uni\WS24\Research Project\gams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CA8B15-FFBD-4D4D-A6F1-6D3F8D05B715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0038C7-9DF6-4596-8818-94B7FFA3FD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10665" yWindow="2520" windowWidth="7500" windowHeight="6000" xr2:uid="{084D40AC-D7E9-4DBD-A79D-FE74B945A7E7}"/>
+    <workbookView xWindow="-16320" yWindow="795" windowWidth="16440" windowHeight="28440" xr2:uid="{084D40AC-D7E9-4DBD-A79D-FE74B945A7E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>76.2829184</v>
+        <v>788.67951366710042</v>
       </c>
     </row>
   </sheetData>

--- a/gams/sumSum_Q_RA_in.xlsx
+++ b/gams/sumSum_Q_RA_in.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\CloudDrive\Uni\WS24\Research Project\gams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0038C7-9DF6-4596-8818-94B7FFA3FD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEE3362-D7C8-445D-ADE5-57276DF80B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="795" windowWidth="16440" windowHeight="28440" xr2:uid="{084D40AC-D7E9-4DBD-A79D-FE74B945A7E7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{084D40AC-D7E9-4DBD-A79D-FE74B945A7E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
